--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3409</t>
+    <t>0.1.41</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T12:02:37-03:00</t>
+    <t>2023-12-19T16:49:38-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.41</t>
+    <t>0.1.42</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T16:49:38-03:00</t>
+    <t>2024-01-16T11:37:21-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.42</t>
+    <t>0.1.43</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T11:37:21-03:00</t>
+    <t>2024-01-16T11:42:34-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.43</t>
+    <t>0.1.44</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T11:42:34-03:00</t>
+    <t>2024-02-12T18:40:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.44</t>
+    <t>0.1.45</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T18:40:26-03:00</t>
+    <t>2024-02-12T18:43:38-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T17:15:01-06:00</t>
+    <t>2024-11-01T00:12:21-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
